--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_6_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_6_square_10_.xlsx
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.9500000000003</v>
+        <v>23.9300000000003</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -595,25 +595,25 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>59.17547466794081</v>
+        <v>62.28997642295737</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[49.96242678218415, 68.38852255369747]</t>
+          <t>[53.046088207082775, 71.53386463883196]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.528342372016657</v>
+        <v>1.490605523324887</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.3648160276856567, 1.6918687163476571]</t>
+          <t>[1.3270791789938858, 1.654131867655888]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>54.77919162333171</v>
+        <v>56.41309856561734</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[48.78417222810106, 60.77421101856236]</t>
+          <t>[50.45677299271063, 62.369424138524046]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>18.12432432432455</v>
+        <v>18.25291291291314</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.50100100100122</v>
+        <v>17.63011011011033</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.74764764764788</v>
+        <v>18.87571571571596</v>
       </c>
     </row>
     <row r="3">
@@ -667,53 +667,53 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.9500000000003</v>
+        <v>23.9300000000003</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>4.551914400963142e-15</v>
+        <v>4.101818884549857e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>4.551914400963142e-15</v>
+        <v>4.101818884549857e-11</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>53.66893249736191</v>
+        <v>55.04658486227049</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[43.5106265666809, 63.82723842804292]</t>
+          <t>[41.34909143231873, 68.74407829222226]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>7.172040739078511e-14</v>
+        <v>2.515403441094577e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>7.172040739078511e-14</v>
+        <v>2.515403441094577e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>1.704447665911579</v>
+        <v>1.691868716347656</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.503184472888809, 1.9057108589343494]</t>
+          <t>[1.4151318259413488, 1.9686056067539637]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="T3" t="n">
-        <v>48.88320821797102</v>
+        <v>54.86484130182046</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[42.65475079898994, 55.1116656369521]</t>
+          <t>[46.38895154876326, 63.34073105487765]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>17.45305305305327</v>
+        <v>17.48638638638661</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.68588588588609</v>
+        <v>16.43241241241262</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.22022022022045</v>
+        <v>18.54036036036059</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.9500000000003</v>
+        <v>23.9300000000003</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>5.10347319959692e-12</v>
+        <v>2.645705876602733e-11</v>
       </c>
       <c r="I4" t="n">
-        <v>5.10347319959692e-12</v>
+        <v>2.645705876602733e-11</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>60.1214172802451</v>
+        <v>64.3872930839208</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[46.877141024166335, 73.36569353632386]</t>
+          <t>[49.062707155127754, 79.71187901271384]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>7.971845406018474e-12</v>
+        <v>7.391265377520995e-11</v>
       </c>
       <c r="O4" t="n">
-        <v>7.971845406018474e-12</v>
+        <v>7.391265377520995e-11</v>
       </c>
       <c r="P4" t="n">
-        <v>1.62897396852804</v>
+        <v>1.616395018964117</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.377394977249577, 1.8805529598065034]</t>
+          <t>[1.352237078121731, 1.8805529598065034]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="T4" t="n">
-        <v>57.29170975759811</v>
+        <v>58.35319329952882</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[48.661788120825314, 65.9216313943709]</t>
+          <t>[48.58413520391218, 68.12225139514545]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="X4" t="n">
-        <v>17.74074074074097</v>
+        <v>17.77383383383406</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.78178178178199</v>
+        <v>16.76776776776798</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.69969969969994</v>
+        <v>18.77989989990014</v>
       </c>
     </row>
     <row r="5">
@@ -839,39 +839,39 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.9500000000003</v>
+        <v>23.9300000000003</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>6.439293542825908e-15</v>
+        <v>2.886579864025407e-15</v>
       </c>
       <c r="I5" t="n">
-        <v>6.439293542825908e-15</v>
+        <v>2.886579864025407e-15</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>61.66229202049934</v>
+        <v>61.81810231762874</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[50.286041288986866, 73.03854275201182]</t>
+          <t>[50.30479420865936, 73.33141042659813]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.108624468950438e-14</v>
+        <v>4.218847493575595e-14</v>
       </c>
       <c r="O5" t="n">
-        <v>3.108624468950438e-14</v>
+        <v>4.218847493575595e-14</v>
       </c>
       <c r="P5" t="n">
-        <v>1.654131867655887</v>
+        <v>1.717026615475502</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.452868674633117, 1.8553950606786573]</t>
+          <t>[1.515763422452732, 1.9182898084982725]</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -881,11 +881,11 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>52.39835664438887</v>
+        <v>52.37050602033886</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[45.17330309027381, 59.623410198503926]</t>
+          <t>[45.29958757048685, 59.44142447019087]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>17.64484484484507</v>
+        <v>17.39057057057079</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.87767767767789</v>
+        <v>16.62404404404425</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.41201201201225</v>
+        <v>18.15709709709733</v>
       </c>
     </row>
     <row r="6">
@@ -925,39 +925,39 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.9500000000003</v>
+        <v>23.9300000000003</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.663735981263017e-15</v>
+        <v>3.906874823655926e-13</v>
       </c>
       <c r="I6" t="n">
-        <v>3.663735981263017e-15</v>
+        <v>3.906874823655926e-13</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>62.59576490241221</v>
+        <v>58.17853147594043</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[50.879850516543456, 74.31167928828097]</t>
+          <t>[45.77221125891842, 70.58485169296245]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.973799150320701e-14</v>
+        <v>3.015365734881925e-12</v>
       </c>
       <c r="O6" t="n">
-        <v>4.973799150320701e-14</v>
+        <v>3.015365734881925e-12</v>
       </c>
       <c r="P6" t="n">
-        <v>1.742184514603349</v>
+        <v>1.729605565039425</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.54092132158058, 1.9434477076261185]</t>
+          <t>[1.478026573760963, 1.9811845563178876]</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -967,11 +967,11 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>54.22245323510511</v>
+        <v>58.16325619940233</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[47.00396958995178, 61.44093688025845]</t>
+          <t>[50.4608739282069, 65.86563847059776]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>17.30920920920943</v>
+        <v>17.34266266266288</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.54204204204225</v>
+        <v>16.38450450450471</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.0763763763766</v>
+        <v>18.30082082082105</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.9500000000003</v>
+        <v>23.9300000000003</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>4.145050969128761e-11</v>
+        <v>6.372680161348399e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>4.145050969128761e-11</v>
+        <v>6.372680161348399e-14</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>57.6887028464257</v>
+        <v>63.6604548268126</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[42.42969824357469, 72.9477074492767]</t>
+          <t>[50.32270689658493, 76.99820275704027]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.261551973996689e-09</v>
+        <v>1.763034163104749e-12</v>
       </c>
       <c r="O7" t="n">
-        <v>1.261551973996689e-09</v>
+        <v>1.763034163104749e-12</v>
       </c>
       <c r="P7" t="n">
-        <v>1.83023716155081</v>
+        <v>1.767342413731195</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.540921321580579, 2.1195530015210418]</t>
+          <t>[1.54092132158058, 1.9937635058818106]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>54.83588287275716</v>
+        <v>59.04687988879965</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[45.95222083823593, 63.71954490727839]</t>
+          <t>[51.06482321032534, 67.02893656727396]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>16.97357357357379</v>
+        <v>17.19893893893915</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.87077077077097</v>
+        <v>16.3365965965968</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.07637637637661</v>
+        <v>18.06128128128151</v>
       </c>
     </row>
     <row r="8">
@@ -1097,39 +1097,39 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.9500000000003</v>
+        <v>23.9300000000003</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.079170086626391e-11</v>
+        <v>1.046607245314135e-12</v>
       </c>
       <c r="I8" t="n">
-        <v>1.079170086626391e-11</v>
+        <v>1.046607245314135e-12</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>57.46368902152906</v>
+        <v>62.41984283804997</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[43.76398462891842, 71.1633934141397]</t>
+          <t>[48.40546592178147, 76.43421975431848]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>7.746714381084985e-11</v>
+        <v>1.393418713746541e-11</v>
       </c>
       <c r="O8" t="n">
-        <v>7.746714381084985e-11</v>
+        <v>1.393418713746541e-11</v>
       </c>
       <c r="P8" t="n">
-        <v>1.679289766783734</v>
+        <v>1.729605565039425</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[1.4151318259413497, 1.9434477076261185]</t>
+          <t>[1.478026573760963, 1.9811845563178876]</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1139,27 +1139,27 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>52.90211505155199</v>
+        <v>54.97726278068576</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[44.446444236264234, 61.35778586683974]</t>
+          <t>[46.45784751811383, 63.49667804325768]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>17.54894894894917</v>
+        <v>17.34266266266288</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.54204204204225</v>
+        <v>16.38450450450471</v>
       </c>
       <c r="Z8" t="n">
-        <v>18.55585585585608</v>
+        <v>18.30082082082105</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.9500000000003</v>
+        <v>23.9300000000003</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>4.348743587456738e-12</v>
+        <v>2.240474472614551e-11</v>
       </c>
       <c r="I9" t="n">
-        <v>4.348743587456738e-12</v>
+        <v>2.240474472614551e-11</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>55.53572885790256</v>
+        <v>57.15405151059129</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[42.80458756091208, 68.26687015489304]</t>
+          <t>[42.74579785797964, 71.56230516320295]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2.548095068277689e-11</v>
+        <v>3.571001272462127e-10</v>
       </c>
       <c r="O9" t="n">
-        <v>2.548095068277689e-11</v>
+        <v>3.571001272462127e-10</v>
       </c>
       <c r="P9" t="n">
-        <v>1.717026615475502</v>
+        <v>1.767342413731195</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1.452868674633117, 1.9811845563178876]</t>
+          <t>[1.478026573760964, 2.0566582537014266]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="T9" t="n">
-        <v>54.13526434870472</v>
+        <v>55.21111838815975</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[46.20315116528028, 62.067377532129164]</t>
+          <t>[46.59051136950049, 63.831725406819004]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X9" t="n">
-        <v>17.40510510510533</v>
+        <v>17.19893893893915</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.39819819819841</v>
+        <v>16.09705705705726</v>
       </c>
       <c r="Z9" t="n">
-        <v>18.41201201201225</v>
+        <v>18.30082082082105</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.87000000000029</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>4.273248421782228e-13</v>
+        <v>3.505958412475252e-09</v>
       </c>
       <c r="I10" t="n">
-        <v>4.273248421782228e-13</v>
+        <v>3.505958412475252e-09</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>55.42782011532176</v>
+        <v>50.59433126266978</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[43.77256880582914, 67.08307142481438]</t>
+          <t>[35.65280972761231, 65.53585279772726]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1.970423824104728e-12</v>
+        <v>1.884595679513268e-08</v>
       </c>
       <c r="O10" t="n">
-        <v>1.970423824104728e-12</v>
+        <v>1.884595679513268e-08</v>
       </c>
       <c r="P10" t="n">
-        <v>1.679289766783734</v>
+        <v>1.767342413731195</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.4528686746331188, 1.9057108589343494]</t>
+          <t>[1.4277107755052718, 2.1069740519571187]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.170175067954915e-13</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1.170175067954915e-13</v>
       </c>
       <c r="T10" t="n">
-        <v>56.4954826256972</v>
+        <v>50.72481875824636</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[49.14125803441432, 63.84970721698008]</t>
+          <t>[41.597442995151034, 59.85219452134168]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.354472090042691e-14</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.354472090042691e-14</v>
       </c>
       <c r="X10" t="n">
-        <v>17.49033033033054</v>
+        <v>17.16300300300321</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.63015015015035</v>
+        <v>15.87219219219238</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.35051051051073</v>
+        <v>18.45381381381404</v>
       </c>
     </row>
     <row r="11">
@@ -1355,39 +1355,39 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.87000000000029</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.077693490003639e-12</v>
+        <v>1.398881011027697e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>1.077693490003639e-12</v>
+        <v>1.398881011027697e-14</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>54.19997990744343</v>
+        <v>61.87204591682443</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[41.72267415748095, 66.67728565740592]</t>
+          <t>[49.560982243219655, 74.18310959042921]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>2.875411020397678e-11</v>
+        <v>3.548272786702e-13</v>
       </c>
       <c r="O11" t="n">
-        <v>2.875411020397678e-11</v>
+        <v>3.548272786702e-13</v>
       </c>
       <c r="P11" t="n">
-        <v>1.792500312859041</v>
+        <v>1.729605565039425</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.528342372016656, 2.0566582537014266]</t>
+          <t>[1.515763422452732, 1.9434477076261185]</t>
         </is>
       </c>
       <c r="R11" t="n">
@@ -1397,11 +1397,11 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>52.36467764781915</v>
+        <v>53.67780005594252</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[44.970593506396746, 59.758761789241554]</t>
+          <t>[46.27060920979768, 61.084990902087355]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1411,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>17.06024024024045</v>
+        <v>17.30642642642664</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.05669669669689</v>
+        <v>16.4936936936939</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.063783783784</v>
+        <v>18.11915915915938</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.87000000000029</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.478328736150615e-13</v>
+        <v>3.573283668956151e-09</v>
       </c>
       <c r="I12" t="n">
-        <v>3.478328736150615e-13</v>
+        <v>3.573283668956151e-09</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>59.22014471436594</v>
+        <v>51.2115436258944</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[45.80444669515387, 72.635842733578]</t>
+          <t>[35.925224335864826, 66.49786291592397]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1.808775351719305e-11</v>
+        <v>2.415200350824875e-08</v>
       </c>
       <c r="O12" t="n">
-        <v>1.808775351719305e-11</v>
+        <v>2.415200350824875e-08</v>
       </c>
       <c r="P12" t="n">
-        <v>1.792500312859041</v>
+        <v>1.729605565039425</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.553500271144502, 2.0315003545735806]</t>
+          <t>[1.4025528763774249, 2.0566582537014257]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>6.94999613415348e-14</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>6.94999613415348e-14</v>
       </c>
       <c r="T12" t="n">
-        <v>56.38860602437125</v>
+        <v>52.42316628760506</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[48.579120085665785, 64.1980919630767]</t>
+          <t>[43.17983206503502, 61.66650051017509]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>6.883382752675971e-15</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>6.883382752675971e-15</v>
       </c>
       <c r="X12" t="n">
-        <v>17.06024024024045</v>
+        <v>17.30642642642664</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.15227227227247</v>
+        <v>16.06342342342362</v>
       </c>
       <c r="Z12" t="n">
-        <v>17.96820820820843</v>
+        <v>18.54942942942966</v>
       </c>
     </row>
     <row r="13">
@@ -1527,53 +1527,53 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.87000000000029</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1.227928869695916e-11</v>
+        <v>2.098321516541546e-14</v>
       </c>
       <c r="I13" t="n">
-        <v>1.227928869695916e-11</v>
+        <v>2.098321516541546e-14</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>56.04832667645605</v>
+        <v>59.87726817713192</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[41.690732161566146, 70.40592119134595]</t>
+          <t>[46.62449844363461, 73.13003791062924]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>5.46807266132987e-10</v>
+        <v>9.161560399206792e-12</v>
       </c>
       <c r="O13" t="n">
-        <v>5.46807266132987e-10</v>
+        <v>9.161560399206792e-12</v>
       </c>
       <c r="P13" t="n">
-        <v>1.855395060678656</v>
+        <v>1.968605606753964</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.566079220708425, 2.144710900648888]</t>
+          <t>[1.7296055650394244, 2.207605648468503]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>56.7182037108779</v>
+        <v>53.60351808156867</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[48.44465623973899, 64.99175118201681]</t>
+          <t>[46.35110975779574, 60.855926405341606]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1583,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>16.82130130130151</v>
+        <v>16.39807807807829</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.72218218218237</v>
+        <v>15.48972972972992</v>
       </c>
       <c r="Z13" t="n">
-        <v>17.92042042042064</v>
+        <v>17.30642642642665</v>
       </c>
     </row>
     <row r="14">
@@ -1613,39 +1613,39 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.87000000000029</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1.807443084089755e-13</v>
+        <v>8.70559180299324e-12</v>
       </c>
       <c r="I14" t="n">
-        <v>1.807443084089755e-13</v>
+        <v>8.70559180299324e-12</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>59.44161147730973</v>
+        <v>54.81218505314664</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[45.551242578007674, 73.3319803766118]</t>
+          <t>[40.773537896397556, 68.85083220989571]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>4.407585407761871e-11</v>
+        <v>5.44452705142362e-10</v>
       </c>
       <c r="O14" t="n">
-        <v>4.407585407761871e-11</v>
+        <v>5.44452705142362e-10</v>
       </c>
       <c r="P14" t="n">
-        <v>1.880552959806503</v>
+        <v>1.905710858934349</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.641552918091966, 2.119553001521041]</t>
+          <t>[1.6289739685280402, 2.182447749340657]</t>
         </is>
       </c>
       <c r="R14" t="n">
@@ -1655,27 +1655,27 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>53.72821979841957</v>
+        <v>50.09761166214037</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[46.05741725158484, 61.399022345254295]</t>
+          <t>[42.08776597351533, 58.107457350765415]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X14" t="n">
-        <v>16.72572572572593</v>
+        <v>16.63711711711732</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.81775775775796</v>
+        <v>15.58534534534554</v>
       </c>
       <c r="Z14" t="n">
-        <v>17.6336936936939</v>
+        <v>17.68888888888911</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_6_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_6_square_10_.xlsx
@@ -581,39 +581,39 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.9300000000003</v>
+        <v>23.97000000000031</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>4.484190796461007e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>4.484190796461007e-13</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>62.28997642295737</v>
+        <v>58.694162580279</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[53.046088207082775, 71.53386463883196]</t>
+          <t>[47.04723078032792, 70.34109438023007]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.255173908200959e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.255173908200959e-13</v>
       </c>
       <c r="P2" t="n">
-        <v>1.490605523324887</v>
+        <v>1.578658170272348</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.3270791789938858, 1.654131867655888]</t>
+          <t>[1.3522370781217319, 1.8050792624229643]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>56.41309856561734</v>
+        <v>57.267190824873</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[50.45677299271063, 62.369424138524046]</t>
+          <t>[49.45262008763839, 65.08176156210763]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>18.25291291291314</v>
+        <v>17.94750750750774</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.63011011011033</v>
+        <v>17.08372372372394</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.87571571571596</v>
+        <v>18.81129129129154</v>
       </c>
     </row>
     <row r="3">
@@ -667,53 +667,53 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.9300000000003</v>
+        <v>23.97000000000031</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>4.101818884549857e-11</v>
+        <v>5.133671265866724e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>4.101818884549857e-11</v>
+        <v>5.133671265866724e-13</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>55.04658486227049</v>
+        <v>61.55123602598654</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[41.34909143231873, 68.74407829222226]</t>
+          <t>[48.992645511054576, 74.1098265409185]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.515403441094577e-10</v>
+        <v>7.789324740770098e-13</v>
       </c>
       <c r="O3" t="n">
-        <v>2.515403441094577e-10</v>
+        <v>7.789324740770098e-13</v>
       </c>
       <c r="P3" t="n">
-        <v>1.691868716347656</v>
+        <v>1.591237119836271</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.4151318259413488, 1.9686056067539637]</t>
+          <t>[1.364816027685655, 1.8176582119868874]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>54.86484130182046</v>
+        <v>54.49683984591542</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[46.38895154876326, 63.34073105487765]</t>
+          <t>[46.27689749457609, 62.71678219725476]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>17.48638638638661</v>
+        <v>17.89951951951975</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.43241241241262</v>
+        <v>17.03573573573595</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.54036036036059</v>
+        <v>18.76330330330355</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.9300000000003</v>
+        <v>23.97000000000031</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.645705876602733e-11</v>
+        <v>5.419531490247209e-11</v>
       </c>
       <c r="I4" t="n">
-        <v>2.645705876602733e-11</v>
+        <v>5.419531490247209e-11</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>64.3872930839208</v>
+        <v>55.40382388109013</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[49.062707155127754, 79.71187901271384]</t>
+          <t>[42.39508707686829, 68.41256068531197]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>7.391265377520995e-11</v>
+        <v>5.045475148790501e-11</v>
       </c>
       <c r="O4" t="n">
-        <v>7.391265377520995e-11</v>
+        <v>5.045475148790501e-11</v>
       </c>
       <c r="P4" t="n">
-        <v>1.616395018964117</v>
+        <v>1.603816069400194</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.352237078121731, 1.8805529598065034]</t>
+          <t>[1.327079178993885, 1.8805529598065034]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>3.33066907387547e-15</v>
       </c>
       <c r="S4" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>3.33066907387547e-15</v>
       </c>
       <c r="T4" t="n">
-        <v>58.35319329952882</v>
+        <v>55.43564430043028</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[48.58413520391218, 68.12225139514545]</t>
+          <t>[46.82460616947105, 64.0466824313895]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W4" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X4" t="n">
-        <v>17.77383383383406</v>
+        <v>17.85153153153176</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.76776776776798</v>
+        <v>16.79579579579601</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.77989989990014</v>
+        <v>18.90726726726752</v>
       </c>
     </row>
     <row r="5">
@@ -839,39 +839,39 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.9300000000003</v>
+        <v>23.97000000000031</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.886579864025407e-15</v>
+        <v>3.491651412446117e-13</v>
       </c>
       <c r="I5" t="n">
-        <v>2.886579864025407e-15</v>
+        <v>3.491651412446117e-13</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>61.81810231762874</v>
+        <v>56.93618080294916</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[50.30479420865936, 73.33141042659813]</t>
+          <t>[44.56237826557313, 69.30998334032519]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>4.218847493575595e-14</v>
+        <v>5.329736652015526e-12</v>
       </c>
       <c r="O5" t="n">
-        <v>4.218847493575595e-14</v>
+        <v>5.329736652015526e-12</v>
       </c>
       <c r="P5" t="n">
-        <v>1.717026615475502</v>
+        <v>1.742184514603348</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.515763422452732, 1.9182898084982725]</t>
+          <t>[1.490605523324886, 1.9937635058818106]</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -881,11 +881,11 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>52.37050602033886</v>
+        <v>51.65403507629431</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[45.29958757048685, 59.44142447019087]</t>
+          <t>[44.14254043617994, 59.165529716408685]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>17.39057057057079</v>
+        <v>17.32366366366389</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.62404404404425</v>
+        <v>16.36390390390411</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.15709709709733</v>
+        <v>18.28342342342366</v>
       </c>
     </row>
     <row r="6">
@@ -925,39 +925,39 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.9300000000003</v>
+        <v>23.97000000000031</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.906874823655926e-13</v>
+        <v>7.291500736528178e-12</v>
       </c>
       <c r="I6" t="n">
-        <v>3.906874823655926e-13</v>
+        <v>7.291500736528178e-12</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>58.17853147594043</v>
+        <v>54.46304545370213</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[45.77221125891842, 70.58485169296245]</t>
+          <t>[41.35023475493939, 67.57585615246487]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.015365734881925e-12</v>
+        <v>1.019153650361204e-10</v>
       </c>
       <c r="O6" t="n">
-        <v>3.015365734881925e-12</v>
+        <v>1.019153650361204e-10</v>
       </c>
       <c r="P6" t="n">
-        <v>1.729605565039425</v>
+        <v>1.717026615475502</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.478026573760963, 1.9811845563178876]</t>
+          <t>[1.452868674633117, 1.9811845563178876]</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -967,11 +967,11 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>58.16325619940233</v>
+        <v>50.2975188520359</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[50.4608739282069, 65.86563847059776]</t>
+          <t>[42.38234496571066, 58.21269273836114]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>17.34266266266288</v>
+        <v>17.41963963963986</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.38450450450471</v>
+        <v>16.4118918918921</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.30082082082105</v>
+        <v>18.42738738738763</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.9300000000003</v>
+        <v>23.97000000000031</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>6.372680161348399e-14</v>
+        <v>2.575324398179646e-10</v>
       </c>
       <c r="I7" t="n">
-        <v>6.372680161348399e-14</v>
+        <v>2.575324398179646e-10</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>63.6604548268126</v>
+        <v>58.32893831931258</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[50.32270689658493, 76.99820275704027]</t>
+          <t>[41.49018427348996, 75.16769236513521]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.763034163104749e-12</v>
+        <v>1.10302311728816e-08</v>
       </c>
       <c r="O7" t="n">
-        <v>1.763034163104749e-12</v>
+        <v>1.10302311728816e-08</v>
       </c>
       <c r="P7" t="n">
-        <v>1.767342413731195</v>
+        <v>1.805079262422964</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.54092132158058, 1.9937635058818106]</t>
+          <t>[1.4906055233248878, 2.119553001521041]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-15</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-15</v>
       </c>
       <c r="T7" t="n">
-        <v>59.04687988879965</v>
+        <v>51.8664920615172</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[51.06482321032534, 67.02893656727396]</t>
+          <t>[42.29152959406184, 61.44145452897256]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>3.153033389935445e-14</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>3.153033389935445e-14</v>
       </c>
       <c r="X7" t="n">
-        <v>17.19893893893915</v>
+        <v>17.08372372372394</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.3365965965968</v>
+        <v>15.88402402402423</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.06128128128151</v>
+        <v>18.28342342342365</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.9300000000003</v>
+        <v>23.97000000000031</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.046607245314135e-12</v>
+        <v>2.108813124124254e-11</v>
       </c>
       <c r="I8" t="n">
-        <v>1.046607245314135e-12</v>
+        <v>2.108813124124254e-11</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>62.41984283804997</v>
+        <v>58.74605161428786</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[48.40546592178147, 76.43421975431848]</t>
+          <t>[44.48750697088707, 73.00459625768866]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.393418713746541e-11</v>
+        <v>1.273958716296875e-10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.393418713746541e-11</v>
+        <v>1.273958716296875e-10</v>
       </c>
       <c r="P8" t="n">
-        <v>1.729605565039425</v>
+        <v>1.66671081721981</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[1.478026573760963, 1.9811845563178876]</t>
+          <t>[1.3899739268135027, 1.9434477076261176]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="T8" t="n">
-        <v>54.97726278068576</v>
+        <v>51.75218519423129</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[46.45784751811383, 63.49667804325768]</t>
+          <t>[42.89964833578329, 60.604722052679286]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>2.442490654175344e-15</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>2.442490654175344e-15</v>
       </c>
       <c r="X8" t="n">
-        <v>17.34266266266288</v>
+        <v>17.61159159159182</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.38450450450471</v>
+        <v>16.55585585585607</v>
       </c>
       <c r="Z8" t="n">
-        <v>18.30082082082105</v>
+        <v>18.66732732732757</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.9300000000003</v>
+        <v>23.97000000000031</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.240474472614551e-11</v>
+        <v>8.130163209330021e-13</v>
       </c>
       <c r="I9" t="n">
-        <v>2.240474472614551e-11</v>
+        <v>8.130163209330021e-13</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>57.15405151059129</v>
+        <v>56.46028168679329</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[42.74579785797964, 71.56230516320295]</t>
+          <t>[44.25889185523994, 68.66167151834665]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.571001272462127e-10</v>
+        <v>4.502620498669785e-12</v>
       </c>
       <c r="O9" t="n">
-        <v>3.571001272462127e-10</v>
+        <v>4.502620498669785e-12</v>
       </c>
       <c r="P9" t="n">
-        <v>1.767342413731195</v>
+        <v>1.679289766783733</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1.478026573760964, 2.0566582537014266]</t>
+          <t>[1.4654476241970409, 1.8931319093704255]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>55.21111838815975</v>
+        <v>53.3363233314652</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[46.59051136950049, 63.831725406819004]</t>
+          <t>[45.681201450863384, 60.99144521206702]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>17.19893893893915</v>
+        <v>17.56360360360383</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.09705705705726</v>
+        <v>16.74780780780803</v>
       </c>
       <c r="Z9" t="n">
-        <v>18.30082082082105</v>
+        <v>18.37939939939963</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.88000000000029</v>
+        <v>23.9000000000003</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.505958412475252e-09</v>
+        <v>2.401856491474064e-12</v>
       </c>
       <c r="I10" t="n">
-        <v>3.505958412475252e-09</v>
+        <v>2.401856491474064e-12</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>50.59433126266978</v>
+        <v>55.34730783664856</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[35.65280972761231, 65.53585279772726]</t>
+          <t>[42.918767814137496, 67.77584785915963]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1.884595679513268e-08</v>
+        <v>1.400213278657247e-11</v>
       </c>
       <c r="O10" t="n">
-        <v>1.884595679513268e-08</v>
+        <v>1.400213278657247e-11</v>
       </c>
       <c r="P10" t="n">
-        <v>1.767342413731195</v>
+        <v>1.66671081721981</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.4277107755052718, 2.1069740519571187]</t>
+          <t>[1.427710775505271, 1.9057108589343494]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.170175067954915e-13</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1.170175067954915e-13</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>50.72481875824636</v>
+        <v>48.25873801579282</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[41.597442995151034, 59.85219452134168]</t>
+          <t>[40.501909401577784, 56.01556663000785]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.354472090042691e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W10" t="n">
-        <v>1.354472090042691e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X10" t="n">
-        <v>17.16300300300321</v>
+        <v>17.56016016016038</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.87219219219238</v>
+        <v>16.65105105105126</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.45381381381404</v>
+        <v>18.4692692692695</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.88000000000029</v>
+        <v>23.9000000000003</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.398881011027697e-14</v>
+        <v>5.018796489508759e-11</v>
       </c>
       <c r="I11" t="n">
-        <v>1.398881011027697e-14</v>
+        <v>5.018796489508759e-11</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>61.87204591682443</v>
+        <v>58.57079749424916</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[49.560982243219655, 74.18310959042921]</t>
+          <t>[43.2258301287378, 73.91576485976053]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.548272786702e-13</v>
+        <v>9.854341787018939e-10</v>
       </c>
       <c r="O11" t="n">
-        <v>3.548272786702e-13</v>
+        <v>9.854341787018939e-10</v>
       </c>
       <c r="P11" t="n">
-        <v>1.729605565039425</v>
+        <v>1.767342413731195</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.515763422452732, 1.9434477076261185]</t>
+          <t>[1.478026573760964, 2.0566582537014266]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="T11" t="n">
-        <v>53.67780005594252</v>
+        <v>56.26320509851548</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[46.27060920979768, 61.084990902087355]</t>
+          <t>[47.19992529903786, 65.32648489799311]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X11" t="n">
-        <v>17.30642642642664</v>
+        <v>17.17737737737759</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.4936936936939</v>
+        <v>16.07687687687707</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.11915915915938</v>
+        <v>18.2778778778781</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.88000000000029</v>
+        <v>23.9000000000003</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.573283668956151e-09</v>
+        <v>1.887379141862766e-15</v>
       </c>
       <c r="I12" t="n">
-        <v>3.573283668956151e-09</v>
+        <v>1.887379141862766e-15</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>51.2115436258944</v>
+        <v>62.86148319228563</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[35.925224335864826, 66.49786291592397]</t>
+          <t>[50.72503721042766, 74.9979291741436]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>2.415200350824875e-08</v>
+        <v>1.358912982141192e-13</v>
       </c>
       <c r="O12" t="n">
-        <v>2.415200350824875e-08</v>
+        <v>1.358912982141192e-13</v>
       </c>
       <c r="P12" t="n">
-        <v>1.729605565039425</v>
+        <v>1.792500312859041</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.4025528763774249, 2.0566582537014257]</t>
+          <t>[1.57865817027235, 2.0063424554457328]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>6.94999613415348e-14</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>6.94999613415348e-14</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>52.42316628760506</v>
+        <v>57.25307857905064</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[43.17983206503502, 61.66650051017509]</t>
+          <t>[50.14511612920631, 64.36104102889499]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>6.883382752675971e-15</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>6.883382752675971e-15</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>17.30642642642664</v>
+        <v>17.08168168168189</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.06342342342362</v>
+        <v>16.26826826826847</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.54942942942966</v>
+        <v>17.89509509509531</v>
       </c>
     </row>
     <row r="13">
@@ -1527,39 +1527,39 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.88000000000029</v>
+        <v>23.9000000000003</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.098321516541546e-14</v>
+        <v>1.523736692377042e-11</v>
       </c>
       <c r="I13" t="n">
-        <v>2.098321516541546e-14</v>
+        <v>1.523736692377042e-11</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>59.87726817713192</v>
+        <v>56.27073993569133</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[46.62449844363461, 73.13003791062924]</t>
+          <t>[41.14459978305911, 71.39688008832356]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>9.161560399206792e-12</v>
+        <v>1.906043767263554e-09</v>
       </c>
       <c r="O13" t="n">
-        <v>9.161560399206792e-12</v>
+        <v>1.906043767263554e-09</v>
       </c>
       <c r="P13" t="n">
-        <v>1.968605606753964</v>
+        <v>1.993763505881811</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.7296055650394244, 2.207605648468503]</t>
+          <t>[1.7170266154755032, 2.270500396288118]</t>
         </is>
       </c>
       <c r="R13" t="n">
@@ -1569,11 +1569,11 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>53.60351808156867</v>
+        <v>55.3770119768555</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[46.35110975779574, 60.855926405341606]</t>
+          <t>[46.99531179175456, 63.75871216195644]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1583,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>16.39807807807829</v>
+        <v>16.31611611611632</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.48972972972992</v>
+        <v>15.26346346346366</v>
       </c>
       <c r="Z13" t="n">
-        <v>17.30642642642665</v>
+        <v>17.36876876876898</v>
       </c>
     </row>
     <row r="14">
@@ -1613,39 +1613,39 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.88000000000029</v>
+        <v>23.9000000000003</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>8.70559180299324e-12</v>
+        <v>7.687184222504584e-13</v>
       </c>
       <c r="I14" t="n">
-        <v>8.70559180299324e-12</v>
+        <v>7.687184222504584e-13</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>54.81218505314664</v>
+        <v>61.66055077235947</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[40.773537896397556, 68.85083220989571]</t>
+          <t>[47.58163030989411, 75.73947123482483]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>5.44452705142362e-10</v>
+        <v>2.271360877159623e-11</v>
       </c>
       <c r="O14" t="n">
-        <v>5.44452705142362e-10</v>
+        <v>2.271360877159623e-11</v>
       </c>
       <c r="P14" t="n">
-        <v>1.905710858934349</v>
+        <v>1.792500312859041</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.6289739685280402, 2.182447749340657]</t>
+          <t>[1.54092132158058, 2.0440793041375027]</t>
         </is>
       </c>
       <c r="R14" t="n">
@@ -1655,27 +1655,27 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.09761166214037</v>
+        <v>56.39847960082229</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[42.08776597351533, 58.107457350765415]</t>
+          <t>[48.062272884450884, 64.7346863171937]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>16.63711711711732</v>
+        <v>17.08168168168189</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.58534534534554</v>
+        <v>16.12472472472493</v>
       </c>
       <c r="Z14" t="n">
-        <v>17.68888888888911</v>
+        <v>18.03863863863886</v>
       </c>
     </row>
   </sheetData>
